--- a/docx/Data Kunci Jawaban.xlsx
+++ b/docx/Data Kunci Jawaban.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38a009a5e8a46036/Skripsi BIPA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\OneDrive\Skripsi BIPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CFAB5D3-FFC0-4AC1-B013-AFE96876375C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F6E03F-8265-4D51-9743-82AD7B3901ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2" xr2:uid="{A92FF3A8-7125-4AD0-A6E6-E3F1AB176A37}"/>
+    <workbookView xWindow="-825" yWindow="705" windowWidth="2400" windowHeight="585" activeTab="8" xr2:uid="{A92FF3A8-7125-4AD0-A6E6-E3F1AB176A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit 1" sheetId="1" r:id="rId1"/>
     <sheet name="Unit 2" sheetId="2" r:id="rId2"/>
     <sheet name="Unit 3" sheetId="3" r:id="rId3"/>
     <sheet name="Unit 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Unit 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Unit 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Unit 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Unit 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Unit 9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="277">
   <si>
     <t>No</t>
   </si>
@@ -60,9 +65,6 @@
     <t>usia</t>
   </si>
   <si>
-    <t xml:space="preserve">tujuh </t>
-  </si>
-  <si>
     <t>tahun</t>
   </si>
   <si>
@@ -81,9 +83,6 @@
     <t>tinggal</t>
   </si>
   <si>
-    <t>dijalan</t>
-  </si>
-  <si>
     <t>pemuda</t>
   </si>
   <si>
@@ -105,21 +104,9 @@
     <t>alia</t>
   </si>
   <si>
-    <t>lima</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>anggota</t>
   </si>
   <si>
-    <t>tujuh</t>
-  </si>
-  <si>
-    <t>enam</t>
-  </si>
-  <si>
     <t>alamat</t>
   </si>
   <si>
@@ -135,9 +122,6 @@
     <t>muka</t>
   </si>
   <si>
-    <t>belas</t>
-  </si>
-  <si>
     <t>jakarta</t>
   </si>
   <si>
@@ -225,12 +209,6 @@
     <t>tinggi</t>
   </si>
   <si>
-    <t>berkaca</t>
-  </si>
-  <si>
-    <t>mata</t>
-  </si>
-  <si>
     <t>rambut</t>
   </si>
   <si>
@@ -244,6 +222,648 @@
   </si>
   <si>
     <t>biru</t>
+  </si>
+  <si>
+    <t>pak</t>
+  </si>
+  <si>
+    <t>agus</t>
+  </si>
+  <si>
+    <t>pengusaha</t>
+  </si>
+  <si>
+    <t>bangun</t>
+  </si>
+  <si>
+    <t>pukul</t>
+  </si>
+  <si>
+    <t>pagi</t>
+  </si>
+  <si>
+    <t>itu</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>berkacamata</t>
+  </si>
+  <si>
+    <t>tidur</t>
+  </si>
+  <si>
+    <t>setelah</t>
+  </si>
+  <si>
+    <t>angka jam</t>
+  </si>
+  <si>
+    <t>mandi</t>
+  </si>
+  <si>
+    <t>sarapan</t>
+  </si>
+  <si>
+    <t>pergi</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kantor </t>
+  </si>
+  <si>
+    <t>tiba</t>
+  </si>
+  <si>
+    <t>pulang</t>
+  </si>
+  <si>
+    <t>dari</t>
+  </si>
+  <si>
+    <t>senang</t>
+  </si>
+  <si>
+    <t>membeli</t>
+  </si>
+  <si>
+    <t>buah</t>
+  </si>
+  <si>
+    <t>segar</t>
+  </si>
+  <si>
+    <t>untuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rumah </t>
+  </si>
+  <si>
+    <t>sore</t>
+  </si>
+  <si>
+    <t>kadang-kadang</t>
+  </si>
+  <si>
+    <t>berjalan-jalan</t>
+  </si>
+  <si>
+    <t>anjingnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">makan </t>
+  </si>
+  <si>
+    <t>malam</t>
+  </si>
+  <si>
+    <t>keluarganya</t>
+  </si>
+  <si>
+    <t>biasanya</t>
+  </si>
+  <si>
+    <t>menonton</t>
+  </si>
+  <si>
+    <t>berita</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. </t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>namaku</t>
+  </si>
+  <si>
+    <t>amelia</t>
+  </si>
+  <si>
+    <t>umurku</t>
+  </si>
+  <si>
+    <t>aku</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>kusuma</t>
+  </si>
+  <si>
+    <t>membaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adalah </t>
+  </si>
+  <si>
+    <t>hobiku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sejak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kecil </t>
+  </si>
+  <si>
+    <t>sering</t>
+  </si>
+  <si>
+    <t>membacakan</t>
+  </si>
+  <si>
+    <t>dongeng</t>
+  </si>
+  <si>
+    <t>untukku</t>
+  </si>
+  <si>
+    <t>kini</t>
+  </si>
+  <si>
+    <t>sudah</t>
+  </si>
+  <si>
+    <t>bisa</t>
+  </si>
+  <si>
+    <t>mengajakku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ke </t>
+  </si>
+  <si>
+    <t>toko</t>
+  </si>
+  <si>
+    <t>buku</t>
+  </si>
+  <si>
+    <t>jika</t>
+  </si>
+  <si>
+    <t>membawaku</t>
+  </si>
+  <si>
+    <t>sana</t>
+  </si>
+  <si>
+    <t>perpustakaan</t>
+  </si>
+  <si>
+    <t>teman-teman</t>
+  </si>
+  <si>
+    <t>ayah</t>
+  </si>
+  <si>
+    <t>membuatku</t>
+  </si>
+  <si>
+    <t>rak</t>
+  </si>
+  <si>
+    <t>setiap</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>selamat</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>maaf</t>
+  </si>
+  <si>
+    <t>mengganggu</t>
+  </si>
+  <si>
+    <t>ruangan</t>
+  </si>
+  <si>
+    <t>besok</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>perubahan</t>
+  </si>
+  <si>
+    <t>kita</t>
+  </si>
+  <si>
+    <t>akan</t>
+  </si>
+  <si>
+    <t>belajar</t>
+  </si>
+  <si>
+    <t>ruang</t>
+  </si>
+  <si>
+    <t>latihan</t>
+  </si>
+  <si>
+    <t>serbaguna</t>
+  </si>
+  <si>
+    <t>karena</t>
+  </si>
+  <si>
+    <t>aula</t>
+  </si>
+  <si>
+    <t>dipakai</t>
+  </si>
+  <si>
+    <t>terima</t>
+  </si>
+  <si>
+    <t>kasih</t>
+  </si>
+  <si>
+    <t>oke</t>
+  </si>
+  <si>
+    <t>tolong</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>disiapkan</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>transportasi</t>
+  </si>
+  <si>
+    <t>terbagi</t>
+  </si>
+  <si>
+    <t>menjadi</t>
+  </si>
+  <si>
+    <t>tiga</t>
+  </si>
+  <si>
+    <t>jenis</t>
+  </si>
+  <si>
+    <t>laut</t>
+  </si>
+  <si>
+    <t>udara</t>
+  </si>
+  <si>
+    <t>darat</t>
+  </si>
+  <si>
+    <t>kapal</t>
+  </si>
+  <si>
+    <t>feri</t>
+  </si>
+  <si>
+    <t>pesawat</t>
+  </si>
+  <si>
+    <t>helikopter</t>
+  </si>
+  <si>
+    <t>bermacam-macam</t>
+  </si>
+  <si>
+    <t>misalnya</t>
+  </si>
+  <si>
+    <t>becak</t>
+  </si>
+  <si>
+    <t>delman</t>
+  </si>
+  <si>
+    <t>transjakarta</t>
+  </si>
+  <si>
+    <t>ojek</t>
+  </si>
+  <si>
+    <t>bajaj</t>
+  </si>
+  <si>
+    <t>mobil</t>
+  </si>
+  <si>
+    <t>taksi</t>
+  </si>
+  <si>
+    <t>metromini</t>
+  </si>
+  <si>
+    <t>angkot</t>
+  </si>
+  <si>
+    <t>kereta</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sepeda </t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>kota</t>
+  </si>
+  <si>
+    <t>adalah</t>
+  </si>
+  <si>
+    <t>beberapa</t>
+  </si>
+  <si>
+    <t>kendaraan</t>
+  </si>
+  <si>
+    <t>umum</t>
+  </si>
+  <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>banyak</t>
+  </si>
+  <si>
+    <t>digunakan</t>
+  </si>
+  <si>
+    <t>masyarakat</t>
+  </si>
+  <si>
+    <t>pendingin</t>
+  </si>
+  <si>
+    <t>harga</t>
+  </si>
+  <si>
+    <t>murah</t>
+  </si>
+  <si>
+    <t>membuat</t>
+  </si>
+  <si>
+    <t>ini</t>
+  </si>
+  <si>
+    <t>digemari</t>
+  </si>
+  <si>
+    <t>orang</t>
+  </si>
+  <si>
+    <t>cukup</t>
+  </si>
+  <si>
+    <t>dengan</t>
+  </si>
+  <si>
+    <t>rp3.500</t>
+  </si>
+  <si>
+    <t>kamu</t>
+  </si>
+  <si>
+    <t>tempat</t>
+  </si>
+  <si>
+    <t>mau</t>
+  </si>
+  <si>
+    <t>pasar</t>
+  </si>
+  <si>
+    <t>beringharjo</t>
+  </si>
+  <si>
+    <t>terletak</t>
+  </si>
+  <si>
+    <t>jenderal</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>yani</t>
+  </si>
+  <si>
+    <t>Yogyakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banyak </t>
+  </si>
+  <si>
+    <t>barang</t>
+  </si>
+  <si>
+    <t>dapat</t>
+  </si>
+  <si>
+    <t>dibeli</t>
+  </si>
+  <si>
+    <t>mulai</t>
+  </si>
+  <si>
+    <t>batik</t>
+  </si>
+  <si>
+    <t>jajanan</t>
+  </si>
+  <si>
+    <t>uang</t>
+  </si>
+  <si>
+    <t>kuno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pakaian </t>
+  </si>
+  <si>
+    <t>anak</t>
+  </si>
+  <si>
+    <t>dewasa</t>
+  </si>
+  <si>
+    <t>makanan</t>
+  </si>
+  <si>
+    <t>cepat</t>
+  </si>
+  <si>
+    <t>saji</t>
+  </si>
+  <si>
+    <t>bahan</t>
+  </si>
+  <si>
+    <t>jamu</t>
+  </si>
+  <si>
+    <t>tradisional</t>
+  </si>
+  <si>
+    <t>sembako</t>
+  </si>
+  <si>
+    <t>hingga</t>
+  </si>
+  <si>
+    <t>antik</t>
+  </si>
+  <si>
+    <t>memiliki</t>
+  </si>
+  <si>
+    <t>berbagai</t>
+  </si>
+  <si>
+    <t>kain</t>
+  </si>
+  <si>
+    <t>maupun</t>
+  </si>
+  <si>
+    <t>jadi</t>
+  </si>
+  <si>
+    <t>katun</t>
+  </si>
+  <si>
+    <t>sutra</t>
+  </si>
+  <si>
+    <t>koleksi</t>
+  </si>
+  <si>
+    <t>dijumpai</t>
+  </si>
+  <si>
+    <t>bagian</t>
+  </si>
+  <si>
+    <t>barat</t>
+  </si>
+  <si>
+    <t>kios</t>
+  </si>
+  <si>
+    <t>sebelah</t>
+  </si>
+  <si>
+    <t>utara</t>
+  </si>
+  <si>
+    <t>hampir</t>
+  </si>
+  <si>
+    <t>seluruh</t>
+  </si>
+  <si>
+    <t>selain</t>
+  </si>
+  <si>
+    <t>juga</t>
+  </si>
+  <si>
+    <t>menawarkan</t>
+  </si>
+  <si>
+    <t>baju</t>
+  </si>
+  <si>
+    <t>surjan</t>
+  </si>
+  <si>
+    <t>blangkon</t>
+  </si>
+  <si>
+    <t>sarung</t>
+  </si>
+  <si>
+    <t>dijual</t>
+  </si>
+  <si>
+    <t>pula</t>
+  </si>
+  <si>
+    <t>sandal</t>
+  </si>
+  <si>
+    <t>tas</t>
+  </si>
+  <si>
+    <t>sekitar</t>
+  </si>
+  <si>
+    <t>eskalator</t>
+  </si>
+  <si>
+    <t>bervariasi</t>
+  </si>
+  <si>
+    <t>mahal</t>
+  </si>
+  <si>
+    <t>rata-rata</t>
+  </si>
+  <si>
+    <t>rp50.000</t>
+  </si>
+  <si>
+    <t>masih</t>
+  </si>
+  <si>
+    <t>ditawar</t>
+  </si>
+  <si>
+    <t>lebih</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>daripada</t>
+  </si>
+  <si>
+    <t>tenun</t>
   </si>
 </sst>
 </file>
@@ -598,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF947D47-45DC-4BAE-A714-52FD05A1836C}">
-  <dimension ref="B1:D19"/>
+  <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,8 +1321,8 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
+      <c r="C9">
+        <v>7</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -713,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -724,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -734,11 +1354,11 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -746,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -757,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -768,7 +1388,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -779,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -790,7 +1410,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -801,7 +1421,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -812,10 +1432,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>SUM(D2:D19)</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -825,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110F1DC0-7B20-463C-AF6C-DF242A7C2387}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -854,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -865,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -876,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -887,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -898,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -920,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -942,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -953,29 +1579,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -986,7 +1606,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -996,8 +1616,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
+      <c r="B15">
+        <v>576</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1007,19 +1627,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1030,7 +1644,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1041,7 +1655,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1052,7 +1666,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1063,7 +1677,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1073,8 +1687,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
+      <c r="B22">
+        <v>17</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1084,19 +1698,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1107,10 +1715,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>SUM(C2:C25)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1120,15 +1734,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC521A5E-9048-4F9C-A524-252B675DDDD8}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1170,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1181,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1191,8 +1806,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
+      <c r="B6">
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1203,7 +1818,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1214,7 +1829,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1225,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1236,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1247,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1258,7 +1873,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1269,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1279,19 +1894,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1302,7 +1911,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1313,7 +1922,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1324,7 +1933,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1335,10 +1944,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>SUM(C2:C19)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1348,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E64047-3652-4941-9002-C8F1011980E7}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1375,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1386,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1397,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1408,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1419,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1430,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1441,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1452,7 +2067,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1463,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1474,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1485,7 +2100,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1496,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1507,7 +2122,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1518,7 +2133,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1529,7 +2144,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1540,7 +2155,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1551,7 +2166,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1562,7 +2177,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1573,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1584,7 +2199,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1595,7 +2210,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1606,7 +2221,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1617,7 +2232,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1628,10 +2243,2261 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>SUM(C2:C25)</f>
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB802136-9F2C-40A3-AA75-4815A9E3EFAD}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>6.3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f>SUM(C2:C47)</f>
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C9CE96-615A-487E-8900-A164F80780FD}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f>SUM(C2:C40)</f>
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21259D44-1B77-4E2D-8D41-9486BB21AB77}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>SUM(C2:C28)</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF2C3E-3241-4FA2-8A7A-4DF94E564915}">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B61" sqref="B2:B61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f>SUM(C2:C61)</f>
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B354D255-E67E-4877-A336-A656906EDCD8}">
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f>SUM(C2:C86)</f>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
